--- a/Final/six.xlsx
+++ b/Final/six.xlsx
@@ -9,107 +9,64 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21420" windowHeight="7020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21420" windowHeight="7020" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="6" sheetId="6" r:id="rId1"/>
+    <sheet name="Answer Report 1" sheetId="12" r:id="rId1"/>
+    <sheet name="Sensitivity Report 1" sheetId="13" r:id="rId2"/>
+    <sheet name="6v2" sheetId="7" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="coin_cuttype" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="coin_dualtol" localSheetId="0" hidden="1">0.0000001</definedName>
-    <definedName name="coin_heurs" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="coin_integerpresolve" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="coin_presolve1" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="coin_primaltol" localSheetId="0" hidden="1">0.0000001</definedName>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">'6'!$D$14:$G$14</definedName>
-    <definedName name="solver_adj_ob" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_cha" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_chc1" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_chc2" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_chn" localSheetId="0" hidden="1">4</definedName>
-    <definedName name="solver_chp1" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_chp2" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_cht" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_cir1" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_cir2" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_con" localSheetId="0" hidden="1">" "</definedName>
-    <definedName name="solver_con1" localSheetId="0" hidden="1">" "</definedName>
-    <definedName name="solver_con2" localSheetId="0" hidden="1">" "</definedName>
+    <definedName name="solver_adj" localSheetId="2" hidden="1">'6v2'!$C$13:$F$13</definedName>
     <definedName name="solver_corr" hidden="1">1</definedName>
     <definedName name="solver_ctp1" hidden="1">0</definedName>
     <definedName name="solver_ctp2" hidden="1">0</definedName>
-    <definedName name="solver_dia" localSheetId="0" hidden="1">5</definedName>
+    <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
     <definedName name="solver_disp" hidden="1">0</definedName>
-    <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_eng" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_eval" hidden="1">0</definedName>
-    <definedName name="solver_iao" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_int" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_irs" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_ism" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_kiv" localSheetId="0" hidden="1">2E+30</definedName>
+    <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_lcens" hidden="1">-1E+30</definedName>
     <definedName name="solver_lcut" hidden="1">-1E+30</definedName>
-    <definedName name="solver_lhs_ob1" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_lhs_ob2" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">'6'!$I$14:$I$16</definedName>
-    <definedName name="solver_lhs2" localSheetId="0" hidden="1">'6'!$I$17</definedName>
-    <definedName name="solver_lin" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_mda" localSheetId="0" hidden="1">4</definedName>
-    <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_mod" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_neg" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="2" hidden="1">'6v2'!$H$6:$H$8</definedName>
+    <definedName name="solver_lhs2" localSheetId="2" hidden="1">'6v2'!$H$9</definedName>
+    <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_nsim" hidden="1">1</definedName>
     <definedName name="solver_nssim" hidden="1">-1</definedName>
-    <definedName name="solver_ntr" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_ntri" hidden="1">5000</definedName>
-    <definedName name="solver_num" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_obc" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_obp" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">'6'!$G$14</definedName>
-    <definedName name="solver_opt_ob" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_psi" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_rdp" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_reco1" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_reco2" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_rel1" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rel2" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rep" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_num" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">'6v2'!$F$13</definedName>
+    <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_rel2" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rgen" hidden="1">1</definedName>
-    <definedName name="solver_rhs1" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_rhs2" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rlx" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rhs1" localSheetId="2" hidden="1">'6v2'!$J$6:$J$8</definedName>
+    <definedName name="solver_rhs2" localSheetId="2" hidden="1">'6v2'!$J$9</definedName>
+    <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_rsmp" hidden="1">2</definedName>
-    <definedName name="solver_rtr" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_rxc1" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rxc2" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rxv" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_scl" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_sclt" hidden="1">100</definedName>
     <definedName name="solver_seed" hidden="1">0</definedName>
-    <definedName name="solver_sel" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_sho" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_slv" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_slvu" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_spid" localSheetId="0" hidden="1">" "</definedName>
-    <definedName name="solver_srvr" localSheetId="0" hidden="1">" "</definedName>
+    <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
     <definedName name="solver_strm" hidden="1">0</definedName>
-    <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_tol" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_ucens" hidden="1">1E+30</definedName>
     <definedName name="solver_ucut" hidden="1">1E+30</definedName>
-    <definedName name="solver_umod" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_urs" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_userid" localSheetId="0" hidden="1">319769</definedName>
-    <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_var" localSheetId="0" hidden="1">" "</definedName>
-    <definedName name="solver_ver" localSheetId="0" hidden="1">16</definedName>
-    <definedName name="solver_vir" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_vol" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_vst" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -121,22 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
-  <si>
-    <t>Strategy</t>
-  </si>
-  <si>
-    <t>Player 2</t>
-  </si>
-  <si>
-    <t>Player 1</t>
-  </si>
-  <si>
-    <t>row min</t>
-  </si>
-  <si>
-    <t>col max</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="59">
   <si>
     <t>x1</t>
   </si>
@@ -150,20 +92,179 @@
     <t>x4</t>
   </si>
   <si>
-    <t>constraints</t>
-  </si>
-  <si>
     <t xml:space="preserve"> &gt;=</t>
   </si>
   <si>
     <t xml:space="preserve"> = </t>
+  </si>
+  <si>
+    <t>Constraint</t>
+  </si>
+  <si>
+    <t>Constraint Value</t>
+  </si>
+  <si>
+    <t>^ objective maximize this</t>
+  </si>
+  <si>
+    <t>Microsoft Excel 15.0 Answer Report</t>
+  </si>
+  <si>
+    <t>Worksheet: [six.xlsx]6v2</t>
+  </si>
+  <si>
+    <t>Result: Solver found a solution.  All Constraints and optimality conditions are satisfied.</t>
+  </si>
+  <si>
+    <t>Solver Engine</t>
+  </si>
+  <si>
+    <t>Engine: Simplex LP</t>
+  </si>
+  <si>
+    <t>Solution Time: 0.015 Seconds.</t>
+  </si>
+  <si>
+    <t>Iterations: 6 Subproblems: 0</t>
+  </si>
+  <si>
+    <t>Solver Options</t>
+  </si>
+  <si>
+    <t>Max Time Unlimited,  Iterations Unlimited, Precision 0.000001, Use Automatic Scaling</t>
+  </si>
+  <si>
+    <t>Max Subproblems Unlimited, Max Integer Sols Unlimited, Integer Tolerance 1%, Assume NonNegative</t>
+  </si>
+  <si>
+    <t>Objective Cell (Max)</t>
+  </si>
+  <si>
+    <t>Cell</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Original Value</t>
+  </si>
+  <si>
+    <t>Final Value</t>
+  </si>
+  <si>
+    <t>Variable Cells</t>
+  </si>
+  <si>
+    <t>Integer</t>
+  </si>
+  <si>
+    <t>Constraints</t>
+  </si>
+  <si>
+    <t>Cell Value</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Slack</t>
+  </si>
+  <si>
+    <t>$F$13</t>
+  </si>
+  <si>
+    <t>$C$13</t>
+  </si>
+  <si>
+    <t>Contin</t>
+  </si>
+  <si>
+    <t>$D$13</t>
+  </si>
+  <si>
+    <t>$E$13</t>
+  </si>
+  <si>
+    <t>$H$6</t>
+  </si>
+  <si>
+    <t>$H$6&gt;=$J$6</t>
+  </si>
+  <si>
+    <t>Binding</t>
+  </si>
+  <si>
+    <t>$H$7</t>
+  </si>
+  <si>
+    <t>$H$7&gt;=$J$7</t>
+  </si>
+  <si>
+    <t>$H$8</t>
+  </si>
+  <si>
+    <t>$H$8&gt;=$J$8</t>
+  </si>
+  <si>
+    <t>$H$9</t>
+  </si>
+  <si>
+    <t>$H$9=$J$9</t>
+  </si>
+  <si>
+    <t>Microsoft Excel 15.0 Sensitivity Report</t>
+  </si>
+  <si>
+    <t>Final</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Reduced</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Objective</t>
+  </si>
+  <si>
+    <t>Coefficient</t>
+  </si>
+  <si>
+    <t>Allowable</t>
+  </si>
+  <si>
+    <t>Increase</t>
+  </si>
+  <si>
+    <t>Decrease</t>
+  </si>
+  <si>
+    <t>Shadow</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>R.H. Side</t>
+  </si>
+  <si>
+    <t>Report Created: 12/18/2017 4:54:56 PM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,6 +280,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="18"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -188,7 +297,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -196,14 +305,79 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="23"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="23"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -484,185 +658,792 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C5:K17"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" customWidth="1"/>
+    <col min="7" max="7" width="5.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E16" s="7">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="12">
+        <v>0.33333333333333348</v>
+      </c>
+      <c r="E21" s="12">
+        <v>0.33333333333333348</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="12">
+        <v>0.58333333333333326</v>
+      </c>
+      <c r="E22" s="12">
+        <v>0.58333333333333326</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="12">
+        <v>8.3333333333333204E-2</v>
+      </c>
+      <c r="E23" s="12">
+        <v>8.3333333333333204E-2</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="7">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E24" s="7">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="8">
+        <v>3.3306690738754696E-16</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G29" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="8">
+        <v>-1.1102230246251565E-16</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G30" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="8">
+        <v>-1.1102230246251565E-16</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G32" s="4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.33333333333333348</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0.49999999999999978</v>
+      </c>
+      <c r="H9" s="6">
+        <v>1.0000000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0.58333333333333326</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6">
+        <v>6.0000000000000018</v>
+      </c>
+      <c r="H10" s="6">
+        <v>1.9999999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="6">
+        <v>8.3333333333333204E-2</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6">
+        <v>1.0000000000000004</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0.66666666666666641</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1E+30</v>
+      </c>
+      <c r="H12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="6">
+        <v>3.3306690738754696E-16</v>
+      </c>
+      <c r="E17" s="6">
+        <v>-0.1666666666666666</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0</v>
+      </c>
+      <c r="G17" s="6">
+        <v>0.33333333333333282</v>
+      </c>
+      <c r="H17" s="6">
+        <v>1.0000000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="6">
+        <v>-1.1102230246251565E-16</v>
+      </c>
+      <c r="E18" s="6">
+        <v>-0.5</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0</v>
+      </c>
+      <c r="G18" s="6">
+        <v>0.999999999999998</v>
+      </c>
+      <c r="H18" s="6">
+        <v>7.0000000000000009</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="6">
+        <v>-1.1102230246251565E-16</v>
+      </c>
+      <c r="E19" s="6">
+        <v>-0.33333333333333348</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0</v>
+      </c>
+      <c r="G19" s="6">
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="H19" s="6">
+        <v>0.24999999999999961</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="4">
+        <v>1</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F20" s="4">
+        <v>1</v>
+      </c>
+      <c r="G20" s="4">
+        <v>1E+30</v>
+      </c>
+      <c r="H20" s="4">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C5:J14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="14.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="5" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="F5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="D6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
+    <row r="5" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
         <v>2</v>
       </c>
-      <c r="G6">
+      <c r="F5">
         <v>3</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2">
+        <v>-2</v>
+      </c>
+      <c r="F6" s="2">
+        <v>4</v>
+      </c>
+      <c r="G6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H6">
+        <f>SUMPRODUCT(D6:G6,$C$13:F$13)</f>
+        <v>3.3306690738754696E-16</v>
+      </c>
+      <c r="I6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2">
+        <v>-2</v>
+      </c>
+      <c r="E7" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
+      <c r="F7" s="2">
+        <v>-3</v>
+      </c>
+      <c r="G7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H7">
+        <f>SUMPRODUCT(D7:G7,$C$13:F$13)</f>
+        <v>-1.1102230246251565E-16</v>
+      </c>
+      <c r="I7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8" s="2">
+        <v>3</v>
+      </c>
+      <c r="E8" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F8" s="2">
         <v>5</v>
       </c>
-      <c r="F7">
-        <v>-2</v>
-      </c>
-      <c r="G7">
+      <c r="G8" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H8">
+        <f>SUMPRODUCT(D8:G8,$C$13:F$13)</f>
+        <v>-1.1102230246251565E-16</v>
+      </c>
+      <c r="I8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f>SUMPRODUCT(D9:F9,C13:E13)</f>
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="1">
-        <f>MIN(E7:G7)</f>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="8" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8">
-        <v>-2</v>
-      </c>
-      <c r="F8">
-        <v>3</v>
-      </c>
-      <c r="G8">
-        <v>-1</v>
-      </c>
-      <c r="H8" s="1">
-        <f>MIN(E8:G8)</f>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="9" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="D9">
-        <v>3</v>
-      </c>
-      <c r="E9">
-        <v>4</v>
-      </c>
-      <c r="F9">
-        <v>-3</v>
-      </c>
-      <c r="G9">
-        <v>5</v>
-      </c>
-      <c r="H9">
-        <f>MIN(E9:G9)</f>
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="10" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="D10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10">
-        <f>MAX(E7:E9)</f>
-        <v>5</v>
-      </c>
-      <c r="F10" s="1">
-        <f>MAX(F7:F9)</f>
-        <v>3</v>
-      </c>
-      <c r="G10" s="2">
-        <f>MAX(G7:G9)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="D13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" t="s">
+    </row>
+    <row r="13" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C13" s="11">
+        <v>0.33333333333333348</v>
+      </c>
+      <c r="D13" s="11">
+        <v>0.58333333333333326</v>
+      </c>
+      <c r="E13" s="11">
+        <v>8.3333333333333204E-2</v>
+      </c>
+      <c r="F13">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="14" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
         <v>8</v>
-      </c>
-      <c r="I13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="D14">
-        <v>0.16666666666666669</v>
-      </c>
-      <c r="E14">
-        <v>0.5</v>
-      </c>
-      <c r="F14">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="G14">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="I14">
-        <f>E7*D$14+F7*E$14+G7*F$14-G$14</f>
-        <v>0</v>
-      </c>
-      <c r="J14" t="s">
-        <v>10</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="I15">
-        <f>E8*D$14+F8*E$14+G8*F$14-G$14</f>
-        <v>0</v>
-      </c>
-      <c r="J15" t="s">
-        <v>10</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="I16">
-        <f>E9*D$14+F9*E$14+G9*F$14-G$14</f>
-        <v>0</v>
-      </c>
-      <c r="J16" t="s">
-        <v>10</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I17">
-        <f>D14+E14+F14</f>
-        <v>1</v>
-      </c>
-      <c r="J17" t="s">
-        <v>11</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
